--- a/adaptive_pathways_filled.xlsx
+++ b/adaptive_pathways_filled.xlsx
@@ -32,7 +32,7 @@
     <t>注意</t>
   </si>
   <si>
-    <t>2025-08-26T21:09:37</t>
+    <t>2025-09-23T21:00:37</t>
   </si>
   <si>
     <t>自動生成されたブックです。必要に応じて書式を調整してください。</t>
@@ -203,7 +203,7 @@
     <t>年1回</t>
   </si>
   <si>
-    <t>2025-08-26</t>
+    <t>2025-09-23</t>
   </si>
   <si>
     <t>PRIM: mass=0.16, density=1.00, coverage=0.37</t>
